--- a/wdc_libs/parsers/ch-ftp/nsms_gdr.xlsx
+++ b/wdc_libs/parsers/ch-ftp/nsms_gdr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="960" windowWidth="18000" windowHeight="6645" activeTab="2"/>
+    <workbookView xWindow="1200" yWindow="960" windowWidth="18000" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>key</t>
   </si>
@@ -150,9 +150,6 @@
     <t>NSMS</t>
   </si>
   <si>
-    <t>NSMS_DAU001_GDR004L</t>
-  </si>
-  <si>
     <t>NSMS_DAU001_GDR009L</t>
   </si>
   <si>
@@ -255,7 +252,28 @@
     <t>dataset.units</t>
   </si>
   <si>
-    <t>NSMS, radiation,monitoring</t>
+    <t>МЭД в пом.304/3 (скв.З.10.Г)</t>
+  </si>
+  <si>
+    <t>#NSMS,МЭД,пом.304/3,скв.З.10.Г</t>
+  </si>
+  <si>
+    <t>#NSMS</t>
+  </si>
+  <si>
+    <t>Nuclear Saving Monitoring System</t>
+  </si>
+  <si>
+    <t>#NSMS.label</t>
+  </si>
+  <si>
+    <t>#NSMS.note</t>
+  </si>
+  <si>
+    <t>#NSMS.icon</t>
+  </si>
+  <si>
+    <t>#NSMS.url</t>
   </si>
 </sst>
 </file>
@@ -272,12 +290,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -292,9 +316,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -598,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,160 +642,161 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>i18n!A2</f>
+        <v>#dsl</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -778,7 +804,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -786,7 +812,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -794,7 +820,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -802,7 +828,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -810,7 +836,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -818,7 +844,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -826,7 +852,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -834,7 +860,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -842,7 +868,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -850,7 +876,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -858,7 +884,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -866,15 +892,15 @@
         <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -882,7 +908,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,15 +916,15 @@
         <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -908,32 +934,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -943,16 +992,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,21 +1010,44 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
-        <v>75</v>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
